--- a/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0D106B-C5AE-49A6-8EEC-AD315DCFCA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{944BEE6A-B888-4E52-AAB2-E93719DA6747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92CA4E7A-85F3-48B1-8851-B7EA3DAA5AB0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{79A6A56B-8BA5-441F-8ACC-390A7D64E9A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="94">
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -103,13 +103,13 @@
     <t>94,22%</t>
   </si>
   <si>
-    <t>82,49%</t>
+    <t>82,32%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>17,51%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -118,13 +118,13 @@
     <t>96,19%</t>
   </si>
   <si>
-    <t>87,67%</t>
+    <t>88,34%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>12,33%</t>
+    <t>11,66%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -133,19 +133,19 @@
     <t>93,51%</t>
   </si>
   <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -154,37 +154,37 @@
     <t>85,93%</t>
   </si>
   <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -208,43 +208,37 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>91,88%</t>
+    <t>91,84%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>89,81%</t>
+    <t>91,04%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>8,96%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,97%</t>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -256,7 +250,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2015 (Tasa respuesta: 2,31%)</t>
@@ -265,67 +259,67 @@
     <t>84,12%</t>
   </si>
   <si>
-    <t>33,97%</t>
+    <t>33,19%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>66,03%</t>
+    <t>66,81%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>87,37%</t>
+    <t>87,51%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>12,63%</t>
+    <t>12,49%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>86,69%</t>
+    <t>87,14%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
 </sst>
 </file>
@@ -737,7 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375B8EC3-3E54-40E8-AA1C-634BBC47AB77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F085A7-4D7D-4571-9DA9-EFE0E33581E5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1764,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57BE2BF-44F0-4F13-845F-8A7FD47B6BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E4B4C0-2A0B-4EC1-BA28-3F2748451485}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2348,10 +2342,10 @@
         <v>45647</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>12</v>
@@ -2363,10 +2357,10 @@
         <v>45647</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>12</v>
@@ -2397,13 +2391,13 @@
         <v>992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2412,13 +2406,13 @@
         <v>992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,10 +2491,10 @@
         <v>62840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>12</v>
@@ -2512,10 +2506,10 @@
         <v>62840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>12</v>
@@ -2546,13 +2540,13 @@
         <v>1868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2561,13 +2555,13 @@
         <v>1868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2640,13 @@
         <v>221064</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -2661,13 +2655,13 @@
         <v>221064</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2689,13 @@
         <v>3924</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2710,13 +2704,13 @@
         <v>3924</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFA54A0-1D63-4719-81D0-7E4019256BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9D4AEF-7D5E-4F76-8FFE-0894EAD9250E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2808,7 +2802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2928,10 +2922,10 @@
         <v>4321</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -2943,10 +2937,10 @@
         <v>4321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>12</v>
@@ -2977,13 +2971,13 @@
         <v>816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2992,13 +2986,13 @@
         <v>816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3071,13 @@
         <v>17631</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -3092,13 +3086,13 @@
         <v>17631</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3120,13 @@
         <v>2523</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3141,13 +3135,13 @@
         <v>2523</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,10 +3220,10 @@
         <v>38870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>12</v>
@@ -3241,10 +3235,10 @@
         <v>38870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>12</v>
@@ -3275,13 +3269,13 @@
         <v>981</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3290,13 +3284,13 @@
         <v>981</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,10 +3518,10 @@
         <v>46100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>12</v>
@@ -3539,10 +3533,10 @@
         <v>46100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>12</v>
@@ -3573,13 +3567,13 @@
         <v>2034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3588,13 +3582,13 @@
         <v>2034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3667,13 @@
         <v>143972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -3688,13 +3682,13 @@
         <v>143972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3716,13 @@
         <v>6354</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3737,13 +3731,13 @@
         <v>6354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{944BEE6A-B888-4E52-AAB2-E93719DA6747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A66098C-65A2-4B88-B2F0-42F9F154FD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{79A6A56B-8BA5-441F-8ACC-390A7D64E9A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2CE4BFD7-51E0-4538-ADBF-092651775075}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="96">
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -97,229 +97,235 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>82,32%</t>
+    <t>82,5%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>88,34%</t>
+    <t>86,59%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>82,54%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2012 (Tasa respuesta: 3,24%)</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>90,77%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2012 (Tasa respuesta: 3,24%)</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>9,23%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>91,04%</t>
+    <t>91,13%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>8,96%</t>
+    <t>8,87%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2015 (Tasa respuesta: 2,31%)</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>33,19%</t>
+    <t>35,43%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>66,81%</t>
+    <t>64,57%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>87,51%</t>
+    <t>87,06%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>12,49%</t>
+    <t>12,94%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>87,14%</t>
+    <t>86,48%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F085A7-4D7D-4571-9DA9-EFE0E33581E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F612CEB7-133C-4B27-94B3-7F9E10553020}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1758,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E4B4C0-2A0B-4EC1-BA28-3F2748451485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5D5B1F-146A-4073-B14F-D60AE492CF05}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2342,10 +2348,10 @@
         <v>45647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>12</v>
@@ -2357,10 +2363,10 @@
         <v>45647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>12</v>
@@ -2391,13 +2397,13 @@
         <v>992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2406,13 +2412,13 @@
         <v>992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,10 +2497,10 @@
         <v>62840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>12</v>
@@ -2506,10 +2512,10 @@
         <v>62840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>12</v>
@@ -2540,13 +2546,13 @@
         <v>1868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2555,13 +2561,13 @@
         <v>1868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2646,13 @@
         <v>221064</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -2655,13 +2661,13 @@
         <v>221064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2695,13 @@
         <v>3924</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2704,13 +2710,13 @@
         <v>3924</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9D4AEF-7D5E-4F76-8FFE-0894EAD9250E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489B2CF4-5B6D-4049-BE11-0C156FCAF0ED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2802,7 +2808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2922,10 +2928,10 @@
         <v>4321</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -2937,10 +2943,10 @@
         <v>4321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>12</v>
@@ -2971,13 +2977,13 @@
         <v>816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2986,13 +2992,13 @@
         <v>816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3077,13 @@
         <v>17631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -3086,13 +3092,13 @@
         <v>17631</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3126,13 @@
         <v>2523</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3135,13 +3141,13 @@
         <v>2523</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,10 +3226,10 @@
         <v>38870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>12</v>
@@ -3235,10 +3241,10 @@
         <v>38870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>12</v>
@@ -3269,13 +3275,13 @@
         <v>981</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3284,13 +3290,13 @@
         <v>981</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,10 +3524,10 @@
         <v>46100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>12</v>
@@ -3533,10 +3539,10 @@
         <v>46100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>12</v>
@@ -3567,13 +3573,13 @@
         <v>2034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3582,13 +3588,13 @@
         <v>2034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3673,13 @@
         <v>143972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -3682,13 +3688,13 @@
         <v>143972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3722,13 @@
         <v>6354</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3731,13 +3737,13 @@
         <v>6354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A66098C-65A2-4B88-B2F0-42F9F154FD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04313CA1-7E11-431B-95BF-39834122F059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2CE4BFD7-51E0-4538-ADBF-092651775075}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F1DC05B-8A02-436B-B92A-F370A6CA08B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -103,13 +103,13 @@
     <t>94,22%</t>
   </si>
   <si>
-    <t>82,5%</t>
+    <t>82,49%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>17,5%</t>
+    <t>17,51%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -118,13 +118,13 @@
     <t>96,19%</t>
   </si>
   <si>
-    <t>86,59%</t>
+    <t>87,67%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>13,41%</t>
+    <t>12,33%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -133,7 +133,7 @@
     <t>93,51%</t>
   </si>
   <si>
-    <t>84,66%</t>
+    <t>82,4%</t>
   </si>
   <si>
     <t>97,88%</t>
@@ -145,7 +145,7 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>15,34%</t>
+    <t>17,6%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -154,37 +154,37 @@
     <t>85,93%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -220,43 +220,43 @@
     <t>97,87%</t>
   </si>
   <si>
-    <t>90,77%</t>
+    <t>88,96%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>9,23%</t>
+    <t>11,04%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>91,13%</t>
+    <t>89,81%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>8,87%</t>
+    <t>10,19%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
@@ -265,19 +265,19 @@
     <t>84,12%</t>
   </si>
   <si>
-    <t>35,43%</t>
+    <t>33,97%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>64,57%</t>
+    <t>66,03%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>69,11%</t>
+    <t>69,41%</t>
   </si>
   <si>
     <t>96,06%</t>
@@ -289,43 +289,43 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>30,89%</t>
+    <t>30,59%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>87,06%</t>
+    <t>87,37%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>12,94%</t>
+    <t>12,63%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>86,48%</t>
+    <t>86,69%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F612CEB7-133C-4B27-94B3-7F9E10553020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A393DD7-FB38-4C59-AEFC-A6590564D79C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1764,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5D5B1F-146A-4073-B14F-D60AE492CF05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E7758F-022F-4114-96C7-AE2885F8D095}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489B2CF4-5B6D-4049-BE11-0C156FCAF0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB2BF2F-6A30-42FD-A766-0E9277B7411D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
